--- a/Data/RoomUpgrade.xlsx
+++ b/Data/RoomUpgrade.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GoldenMansion\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D0C392E-1298-4349-8FBA-4AC8B37AC118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DDFE02E-7C59-470D-B158-3DD14E0793D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RoomData" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
   <si>
     <t>效果描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -125,6 +125,19 @@
   <si>
     <t>roomPicRoute</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoomPic/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoomPic/2</t>
+  </si>
+  <si>
+    <t>RoomPic/3</t>
+  </si>
+  <si>
+    <t>RoomPic/4</t>
   </si>
 </sst>
 </file>
@@ -452,7 +465,7 @@
   <dimension ref="A3:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -543,6 +556,9 @@
       <c r="B7" t="s">
         <v>12</v>
       </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
       <c r="D7">
         <v>1</v>
       </c>
@@ -557,6 +573,9 @@
       <c r="B8" t="s">
         <v>5</v>
       </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
       <c r="D8">
         <v>3</v>
       </c>
@@ -577,6 +596,9 @@
       <c r="B9" t="s">
         <v>6</v>
       </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
       <c r="D9">
         <v>1</v>
       </c>
@@ -596,6 +618,9 @@
       </c>
       <c r="B10" t="s">
         <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
       </c>
       <c r="D10">
         <v>1</v>
